--- a/biology/Botanique/Plantago_asiatica/Plantago_asiatica.xlsx
+++ b/biology/Botanique/Plantago_asiatica/Plantago_asiatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantago asiatica est une espèce de plantes de la famille des Plantaginaceae. Ce plantain pousse dans les zones montagneuses du Japon, de la Chine et de la Corée. Cette plante est utilisée dans la pharmacopée traditionnelle asiatique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plantago asiatica est une espèce de plantes de la famille des Plantaginaceae. Ce plantain pousse dans les zones montagneuses du Japon, de la Chine et de la Corée. Cette plante est utilisée dans la pharmacopée traditionnelle asiatique.
 </t>
         </is>
       </c>
